--- a/DatasetsDescription/DatasetsDescription_DOnsetMin#0#Max#30_AgeMin#70#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False.xlsx
+++ b/DatasetsDescription/DatasetsDescription_DOnsetMin#0#Max#30_AgeMin#70#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>N</t>
   </si>
@@ -31,7 +31,7 @@
     <t>d. onset</t>
   </si>
   <si>
-    <t>CCI&lt;3</t>
+    <t>CCI&lt;4</t>
   </si>
   <si>
     <t>OTI+death</t>
@@ -55,43 +55,49 @@
     <t>BM+Dem</t>
   </si>
   <si>
-    <t>297</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>220</t>
+    <t>342</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>254</t>
   </si>
   <si>
     <t>1.0%</t>
   </si>
   <si>
-    <t>0.7%</t>
-  </si>
-  <si>
-    <t>0.5%</t>
-  </si>
-  <si>
-    <t>7.0%</t>
-  </si>
-  <si>
-    <t>3.6%</t>
-  </si>
-  <si>
-    <t>114(38.4%)</t>
-  </si>
-  <si>
-    <t>44(41.1%)</t>
-  </si>
-  <si>
-    <t>90(40.9%)</t>
-  </si>
-  <si>
-    <t>77(73-81)</t>
-  </si>
-  <si>
-    <t>78(74-82)</t>
+    <t>2.2%</t>
+  </si>
+  <si>
+    <t>0.6%</t>
+  </si>
+  <si>
+    <t>2.4%</t>
+  </si>
+  <si>
+    <t>6.8%</t>
+  </si>
+  <si>
+    <t>5.7%</t>
+  </si>
+  <si>
+    <t>137(40.1%)</t>
+  </si>
+  <si>
+    <t>57(44.5%)</t>
+  </si>
+  <si>
+    <t>105(41.3%)</t>
+  </si>
+  <si>
+    <t>77(73-82)</t>
+  </si>
+  <si>
+    <t>79(74-84)</t>
+  </si>
+  <si>
+    <t>78(73-82)</t>
   </si>
   <si>
     <t>9(7-12)</t>
@@ -100,22 +106,22 @@
     <t>9(6-12)</t>
   </si>
   <si>
-    <t>4(1.3%)</t>
-  </si>
-  <si>
-    <t>2(1.9%)</t>
-  </si>
-  <si>
-    <t>4(1.8%)</t>
-  </si>
-  <si>
-    <t>101(34.0%)</t>
-  </si>
-  <si>
-    <t>36(33.6%)</t>
-  </si>
-  <si>
-    <t>60(27.3%)</t>
+    <t>115(33.6%)</t>
+  </si>
+  <si>
+    <t>33(25.8%)</t>
+  </si>
+  <si>
+    <t>85(33.5%)</t>
+  </si>
+  <si>
+    <t>117(34.2%)</t>
+  </si>
+  <si>
+    <t>42(32.8%)</t>
+  </si>
+  <si>
+    <t>72(28.3%)</t>
   </si>
 </sst>
 </file>
@@ -513,19 +519,19 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -539,19 +545,19 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -562,22 +568,22 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -588,22 +594,22 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -614,22 +620,22 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -640,22 +646,22 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
